--- a/策划文档/MyShop.xlsx
+++ b/策划文档/MyShop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOVE\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537491C-DF90-4D2D-8E10-4EE0E537ECD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15165" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -21,30 +15,23 @@
     <sheet name="Sogo" sheetId="8" r:id="rId6"/>
     <sheet name="Award" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C3980F2F-417B-4A90-B7FC-A15C1607B263}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -52,9 +39,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -62,15 +47,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8442C44C-BDB3-47B2-8722-2EAF715BA9E9}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -78,9 +61,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,22 +69,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4A3DF169-00F9-45B9-916D-6B2CA74B98B2}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C71469C3-A74C-49EB-9319-62F791072689}">
+    <comment ref="F1" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -111,20 +90,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FEE0422F-A049-4852-970D-1CB478FC112B}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -132,9 +109,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,15 +117,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EA68620C-F2DD-4DC0-9EB2-4EA140A8815F}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -158,9 +131,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,15 +139,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1BC3C5F7-11AA-4CC2-870F-D8C86AB5A2AB}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
@@ -188,20 +157,18 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{226E898E-8FF7-4C1E-A9DE-4B96DBE00C59}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -209,9 +176,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -219,15 +184,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C57FA59A-368F-4E3B-BDB5-2E5F4F16299E}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -235,9 +198,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -245,15 +206,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C1AE1423-1E58-4216-B2F5-689983BCCA7D}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
@@ -265,20 +224,18 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF08568F-2EDD-4A98-B7B7-86956FFE59FF}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -286,9 +243,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -296,15 +251,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{018F8191-5F04-4877-B782-06A660B58CE1}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -312,9 +265,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -322,15 +273,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B62656BC-8D4C-45E9-BF94-55BDF6449BFA}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
@@ -342,20 +291,18 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{331F4868-AA6F-4BB8-B22B-7EFD2CB9F04A}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -363,9 +310,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -373,15 +318,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{02ED9065-0B91-48E2-B257-18DA7A66269A}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
@@ -396,217 +339,318 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>TableId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName1</t>
+  </si>
+  <si>
+    <t>TableName2</t>
   </si>
   <si>
     <t>TableDescribe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>柜台交易</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有的柜台及市场消息</t>
   </si>
   <si>
     <t>OTCid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OTCname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OTCdescribe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Refrigerator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冰箱，内含雪糕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Freezer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冰柜，内含饮料及酸奶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GoodsShelf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架，内含日用百货及玩具</t>
   </si>
   <si>
     <t>Counter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>柜台，内含零食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货架，内含日用百货及玩具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GoodsWall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>货壁，内含抽奖卷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>里面包含了所有的柜台及市场消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SnacksId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SnacksName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date_in_produced</t>
+  </si>
+  <si>
+    <t>Shelf_life</t>
+  </si>
+  <si>
+    <t>Purchasing_price</t>
   </si>
   <si>
     <t>上好佳薯片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date_in_produced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020_01_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shelf_life</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchasing_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DrinksId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DrinksName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可口可乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IceId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IceName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SogoId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SogoName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AwardId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AwardName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One_probability</t>
+  </si>
+  <si>
+    <t>Two_probability</t>
+  </si>
+  <si>
+    <t>Three_probability</t>
   </si>
   <si>
     <t>现金奖盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>One_probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three_probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,17 +659,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -659,42 +884,324 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -743,7 +1250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -778,7 +1285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -952,336 +1459,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:27">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD893BD5-0386-4608-83F0-0FAAAC773FCB}">
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="91.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FE6624-9D0F-4DC7-BD8A-47BC363465A8}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1303,340 +1515,634 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="E2" s="2">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D25F9-C984-4BB1-990B-1A6CC9533512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE802EA6-34C6-436C-921A-9F41A43767B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DF3D9B-4DFA-44AF-B796-4ED22D1D9F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909037E3-2AF5-48A4-8C31-ADAB2B4F6072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/策划文档/MyShop.xlsx
+++ b/策划文档/MyShop.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163C50B-CC28-4B77-99C7-3296395D34EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15165" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="1410" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text/>
     </comment>
   </commentList>
@@ -90,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -157,12 +163,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +230,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -291,12 +297,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>TableId</t>
   </si>
@@ -413,9 +419,6 @@
     <t>Purchasing_price</t>
   </si>
   <si>
-    <t>上好佳薯片</t>
-  </si>
-  <si>
     <t>2020_01_20</t>
   </si>
   <si>
@@ -462,19 +465,973 @@
   </si>
   <si>
     <t>现金奖盘</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rinks</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ce</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ogo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ward</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪糕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百货</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货壁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有的零食信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有的饮料信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的雪糕信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的百货信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的奖池信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>口哨糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸管糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小浣熊干脆面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺仔小馒头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咪虾条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜泡泡糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小当家方便面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白兔奶糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母饼干</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪油糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>康康饼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生软糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无花果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>润喉糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丰伊面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大泡泡糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_01_21</t>
+  </si>
+  <si>
+    <t>2020_01_22</t>
+  </si>
+  <si>
+    <t>2020_01_23</t>
+  </si>
+  <si>
+    <t>2020_01_24</t>
+  </si>
+  <si>
+    <t>2020_01_25</t>
+  </si>
+  <si>
+    <t>2020_01_26</t>
+  </si>
+  <si>
+    <t>2020_01_27</t>
+  </si>
+  <si>
+    <t>2020_01_28</t>
+  </si>
+  <si>
+    <t>2020_01_29</t>
+  </si>
+  <si>
+    <t>2020_01_30</t>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>椰树牌椰汁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>健力宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭日升</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酸奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦乳精</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常可乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐百氏AD钙奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀巢冰爽茶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲汽水</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高乐高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哈哈AD钙奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺仔牛奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>夏威夷冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个小矮人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国大脚板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小布丁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝爽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方乙方</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧乐兹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶提子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃头雪糕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米雪糕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇舌头冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>四驱赛车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜球</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火药枪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪_喷子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪_手枪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱油</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>油</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_01_20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_风铃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_火影刃具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_兵器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,159 +1441,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -649,8 +1464,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,37 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,158 +1505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -884,253 +1540,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1140,68 +1557,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1459,28 +1836,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:27">
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1895,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1531,130 +1909,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +2036,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1699,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1710,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1721,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1732,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1744,21 +2092,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
@@ -1768,7 +2115,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1806,40 +2153,328 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1848,12 +2483,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -1882,15 +2517,15 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1899,23 +2534,226 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1924,12 +2762,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -1954,15 +2792,15 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1971,23 +2809,243 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1996,12 +3054,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -2026,26 +3084,26 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2054,23 +3112,139 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
@@ -2080,21 +3254,21 @@
     <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>24</v>
@@ -2120,12 +3294,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -2140,9 +3314,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/策划文档/MyShop.xlsx
+++ b/策划文档/MyShop.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163C50B-CC28-4B77-99C7-3296395D34EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF2317-8B16-4355-B160-9A564DBB190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop" sheetId="1" r:id="rId1"/>
-    <sheet name="OTC" sheetId="3" r:id="rId2"/>
-    <sheet name="Snacks" sheetId="4" r:id="rId3"/>
-    <sheet name="Drinks" sheetId="5" r:id="rId4"/>
-    <sheet name="Ice" sheetId="6" r:id="rId5"/>
-    <sheet name="Sogo" sheetId="8" r:id="rId6"/>
-    <sheet name="Award" sheetId="9" r:id="rId7"/>
+    <sheet name="0Shop" sheetId="1" r:id="rId1"/>
+    <sheet name="1OTC" sheetId="3" r:id="rId2"/>
+    <sheet name="2Snacks" sheetId="4" r:id="rId3"/>
+    <sheet name="3Drinks" sheetId="5" r:id="rId4"/>
+    <sheet name="4Ice" sheetId="6" r:id="rId5"/>
+    <sheet name="5Sogo" sheetId="8" r:id="rId6"/>
+    <sheet name="6Award" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -89,7 +89,18 @@
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -155,6 +166,20 @@
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9BF00E25-C06B-4BBB-84FD-469B1DA0553B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
         </r>
       </text>
     </comment>
@@ -225,6 +250,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2E7C4FE2-BA18-4847-B767-70B61CCCF0FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -292,6 +331,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6AC2E582-8EF2-4D90-83BC-0B50126B7333}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -337,12 +390,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{817AB9A1-FCE0-4E8F-AA67-3662A718A96A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t>TableId</t>
   </si>
@@ -1424,6 +1491,23 @@
   </si>
   <si>
     <t>玩具奖盘_兵器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ge_id</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1564,6 +1648,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1992,7 +2079,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2189,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2218,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2169,6 +2258,9 @@
       <c r="E2" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F2" s="2">
+        <v>20001</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2186,6 +2278,9 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
+      <c r="F3" s="2">
+        <v>20002</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2203,6 +2298,9 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
+      <c r="F4" s="2">
+        <v>20003</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2220,6 +2318,9 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
+      <c r="F5" s="2">
+        <v>20004</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2237,6 +2338,9 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
+      <c r="F6" s="2">
+        <v>20005</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2254,6 +2358,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
+      <c r="F7" s="2">
+        <v>20006</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2271,6 +2378,9 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="F8" s="2">
+        <v>20007</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2288,6 +2398,9 @@
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
+      <c r="F9" s="2">
+        <v>20008</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2305,6 +2418,9 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
+      <c r="F10" s="2">
+        <v>20009</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2322,6 +2438,9 @@
       <c r="E11" s="2">
         <v>2.5</v>
       </c>
+      <c r="F11" s="2">
+        <v>20010</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2339,6 +2458,9 @@
       <c r="E12" s="2">
         <v>13</v>
       </c>
+      <c r="F12" s="2">
+        <v>20011</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2356,6 +2478,9 @@
       <c r="E13" s="2">
         <v>23</v>
       </c>
+      <c r="F13" s="2">
+        <v>20012</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2373,6 +2498,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="2">
+        <v>20013</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2390,6 +2518,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
+      <c r="F15" s="2">
+        <v>20014</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -2407,8 +2538,11 @@
       <c r="E16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2424,8 +2558,11 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2441,8 +2578,11 @@
       <c r="E18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>20017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2457,6 +2597,9 @@
       </c>
       <c r="E19" s="2">
         <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20018</v>
       </c>
     </row>
   </sheetData>
@@ -2468,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,6 +2624,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2499,7 +2643,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2533,6 +2679,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>30001</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2550,6 +2699,9 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="2">
+        <v>30002</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2567,6 +2719,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
+      <c r="F4" s="2">
+        <v>30003</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2584,6 +2739,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
+      <c r="F5" s="2">
+        <v>30004</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2601,6 +2759,9 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
+      <c r="F6" s="2">
+        <v>30005</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2618,6 +2779,9 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
+      <c r="F7" s="2">
+        <v>30006</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2635,6 +2799,9 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
+      <c r="F8" s="2">
+        <v>30007</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2652,6 +2819,9 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
+      <c r="F9" s="2">
+        <v>30008</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2669,6 +2839,9 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="2">
+        <v>30009</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2686,6 +2859,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="2">
+        <v>30010</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2703,6 +2879,9 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
+      <c r="F12" s="2">
+        <v>30011</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2720,6 +2899,9 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
+      <c r="F13" s="2">
+        <v>30012</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2737,6 +2919,24 @@
       <c r="E14" s="2">
         <v>2</v>
       </c>
+      <c r="F14" s="2">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2747,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,6 +2960,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -2778,7 +2979,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2808,6 +3011,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>40001</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2825,6 +3031,9 @@
       <c r="E3" s="2">
         <v>1.5</v>
       </c>
+      <c r="F3" s="2">
+        <v>40002</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2842,6 +3051,9 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
+      <c r="F4" s="2">
+        <v>40003</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2859,6 +3071,9 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="2">
+        <v>40004</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2876,6 +3091,9 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
+      <c r="F6" s="2">
+        <v>40005</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2893,6 +3111,9 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
+      <c r="F7" s="2">
+        <v>40006</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2910,6 +3131,9 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="F8" s="2">
+        <v>40007</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2927,6 +3151,9 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
+      <c r="F9" s="2">
+        <v>40008</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2944,6 +3171,9 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
+      <c r="F10" s="2">
+        <v>40009</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2961,6 +3191,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="2">
+        <v>40010</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2978,6 +3211,9 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="2">
+        <v>40011</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2995,6 +3231,9 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
+      <c r="F13" s="2">
+        <v>40012</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -3012,6 +3251,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="2">
+        <v>40013</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -3029,20 +3271,36 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
+      <c r="F15" s="2">
+        <v>40014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3052,6 +3310,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -3070,7 +3329,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -3094,6 +3355,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>50001</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3111,6 +3375,9 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="2">
+        <v>50002</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3122,6 +3389,9 @@
       <c r="E4" s="2">
         <v>31</v>
       </c>
+      <c r="F4" s="2">
+        <v>50003</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3133,6 +3403,9 @@
       <c r="E5" s="2">
         <v>23</v>
       </c>
+      <c r="F5" s="2">
+        <v>50004</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -3144,6 +3417,9 @@
       <c r="E6" s="2">
         <v>22</v>
       </c>
+      <c r="F6" s="2">
+        <v>50005</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -3155,6 +3431,9 @@
       <c r="E7" s="2">
         <v>22</v>
       </c>
+      <c r="F7" s="2">
+        <v>50006</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -3166,6 +3445,9 @@
       <c r="E8" s="2">
         <v>11</v>
       </c>
+      <c r="F8" s="2">
+        <v>50007</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -3177,6 +3459,9 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
+      <c r="F9" s="2">
+        <v>50008</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -3194,6 +3479,9 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="2">
+        <v>50009</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -3211,6 +3499,9 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
+      <c r="F11" s="2">
+        <v>50010</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -3228,6 +3519,30 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
+      <c r="F12" s="2">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3238,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3252,6 +3567,7 @@
     <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3273,7 +3589,9 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3313,6 +3631,9 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="2">
+        <v>60001</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3333,6 +3654,9 @@
       <c r="F3" s="2">
         <v>12</v>
       </c>
+      <c r="G3" s="2">
+        <v>60002</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3353,6 +3677,9 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
+      <c r="G4" s="2">
+        <v>60003</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3373,6 +3700,51 @@
       <c r="F5" s="2">
         <v>14</v>
       </c>
+      <c r="G5" s="2">
+        <v>60004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/策划文档/MyShop.xlsx
+++ b/策划文档/MyShop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF2317-8B16-4355-B160-9A564DBB190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1E5A5-ED12-49A4-95A8-8635914C15DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0Shop" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>TableId</t>
   </si>
@@ -444,13 +444,7 @@
     <t>Refrigerator</t>
   </si>
   <si>
-    <t>冰箱，内含雪糕</t>
-  </si>
-  <si>
     <t>Freezer</t>
-  </si>
-  <si>
-    <t>冰柜，内含饮料及酸奶</t>
   </si>
   <si>
     <t>GoodsShelf</t>
@@ -1508,6 +1502,18 @@
       </rPr>
       <t>ge_id</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrastTable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱，内含饮料及酸奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰柜，内含雪糕</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2001,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -2015,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -2029,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2043,13 +2049,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -2057,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -2078,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2087,6 +2093,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2106,9 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2131,7 +2140,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>136</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2139,10 +2151,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -2150,10 +2165,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2161,10 +2179,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2172,15 +2193,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2204,22 +2229,22 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2247,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -2267,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -2287,10 +2312,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2307,10 +2332,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -2327,10 +2352,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -2347,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -2367,10 +2392,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -2387,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -2407,10 +2432,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -2427,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -2447,10 +2472,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -2467,10 +2492,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -2487,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -2507,10 +2532,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
@@ -2527,10 +2552,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
         <v>17</v>
@@ -2547,10 +2572,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2">
         <v>18</v>
@@ -2567,10 +2592,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>19</v>
@@ -2587,10 +2612,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2">
         <v>20</v>
@@ -2629,22 +2654,22 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2668,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -2688,10 +2713,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -2708,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2728,10 +2753,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -2748,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -2768,10 +2793,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -2788,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -2808,10 +2833,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -2828,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -2848,10 +2873,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -2868,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -2888,10 +2913,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -2908,10 +2933,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -2965,22 +2990,22 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3000,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -3020,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -3040,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -3060,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -3080,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -3100,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -3120,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -3140,10 +3165,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -3160,10 +3185,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -3180,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -3200,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -3220,10 +3245,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -3240,10 +3265,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -3260,10 +3285,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
@@ -3315,22 +3340,22 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3350,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3364,10 +3389,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3384,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>31</v>
@@ -3398,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>23</v>
@@ -3412,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
@@ -3426,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
         <v>22</v>
@@ -3440,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
@@ -3454,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -3468,10 +3493,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>13</v>
@@ -3488,10 +3513,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
         <v>11</v>
@@ -3508,10 +3533,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2">
         <v>22</v>
@@ -3555,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3572,25 +3597,25 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -3617,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -3640,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -3663,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -3686,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
